--- a/pred_ohlcv/54_21/2020-01-12 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 EOS ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>24295.47116638003</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>44269.00315835004</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>44269.00315835004</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>44371.87115835004</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>35222.97425835004</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>39322.34655835004</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>40997.30728039004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>41001.14270406005</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>40728.96230406005</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>41589.46730406005</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>41867.36760406005</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>41241.61700406005</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>42190.87190406005</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>42810.34840406005</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>65629.45260406005</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>135841.32050406</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>147592.80250406</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>168844.29501481</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>169984.37351481</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>167629.03441481</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>168354.23661481</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>181745.31791481</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>170950.29861481</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>170487.81501481</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>171060.18411481</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>164909.97031481</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>164713.62461481</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>169701.30371481</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>169080.31601481</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>172756.07231481</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>173889.01581481</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>179870.81021481</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>196073.45951481</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>192472.81921481</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>192500.31591481</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>194146.72611481</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>193553.79971481</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>193659.24301481</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>193659.24301481</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>194125.70431481</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>191588.10691481</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>189772.27261481</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>191114.07221481</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>191114.07221481</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>192958.47881481</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>192926.47881481</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>193176.47881481</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>193379.93911481</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>193379.93911481</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>193560.73671481</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>194966.10681481</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>194966.10681481</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>194839.86301481</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>191646.87491481</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>191236.00851481</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>185054.76771481</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>180307.07421481</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>187498.47501481</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>187055.68991481</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>186835.20541481</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>215113.9314558201</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>214356.2749558201</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>214680.5732558201</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>213445.4519558201</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>212698.7265558201</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>212986.9929558201</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>213852.2161558201</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>210798.8636558201</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>181184.6456558201</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>176482.7779396501</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>167055.4997396501</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>120210.1893396501</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>130693.7324396501</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>197779.6004627701</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>186427.0135627701</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>185942.5693627701</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>185710.2963627701</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>185383.0243627701</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>172755.5594627701</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>173842.2488627701</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>174864.1266627701</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>177535.6502627701</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>210695.10936277</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>210354.58216277</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>210354.58216277</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>210418.37766277</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>210372.14106277</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>212325.56646277</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>216792.4417627701</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>226331.52846277</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>213912.0298627701</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>217393.50026277</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>359894.3132391801</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>363411.4775391801</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>360293.5174391801</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>361799.3792391801</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>386997.1502391801</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>381802.0504731001</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>378158.6044731001</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>390315.1169731001</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>386476.8812731001</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>384300.9862731001</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>395668.7410731001</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>401585.8831055501</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>393842.7692055501</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>389708.9760055501</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>392394.1784055501</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>391427.7854055501</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>376612.7939055501</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>387684.8281055501</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>381022.3720055501</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>305718.5089459798</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>309833.6012459798</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>314171.1266459798</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>301977.2807459797</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>302124.6290459798</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>296967.9293459798</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>296965.5893459797</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>289849.7536459797</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>291949.0053459798</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>232616.3104459797</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>236498.1117380097</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>237725.6258380097</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>239282.2521667497</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>239280.2521667497</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>241770.6789667497</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>241405.1853667497</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>238881.1531667497</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>239489.9606667497</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>270018.5132594597</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>280848.5380692598</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>280661.6813692598</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>276321.9341692598</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>285714.3542704799</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>285891.3039704799</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>287237.4026704798</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>287501.3509704798</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>287045.7816704799</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>287323.7954704799</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>284933.0571704798</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>284897.8150704799</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>284967.0904704799</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>284969.1739704799</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>288342.4189704799</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>278756.4943704798</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>278091.9251704799</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>275988.7892130599</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>270790.1155130599</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>272247.9393887099</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>271747.7393887099</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>279958.7251887099</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>278828.0076887099</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>280414.2333887099</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>285903.9739887099</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>285881.0333887099</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>286432.8611887099</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>287043.0360887099</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>285709.3531887099</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>279670.5943887099</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>276334.3790887099</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>278084.5610887099</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>279685.8078887099</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>279711.7396887099</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>279789.5188887099</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>276876.6303887099</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>274850.1609887099</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>274733.3569887099</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>271923.2680887099</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>289913.9745359301</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>290413.9745359301</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>290381.9745359301</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>289945.2953359301</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>289950.3527697601</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>290186.5576697601</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>290609.0213697601</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>288665.6297697601</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>288367.4413697601</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>294456.43692853</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>295943.9359285301</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>290842.25272853</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 EOS ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>24295.47116638003</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>43559.12565835002</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>43740.13715835002</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>39322.34655835004</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>38988.34655835004</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>40997.30728039004</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>41001.14270406005</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>40728.96230406005</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>41589.46730406005</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>41867.36760406005</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>42190.87190406005</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>42810.34840406005</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>65629.45260406005</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>135841.32050406</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>147592.80250406</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>168844.29501481</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>169984.37351481</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>167629.03441481</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>168354.23661481</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>181745.31791481</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>170950.29861481</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>170487.81501481</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>171060.18411481</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>164909.97031481</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>164713.62461481</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>169701.30371481</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>169080.31601481</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>172973.07231481</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>172756.07231481</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>173889.01581481</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>179870.81021481</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>196073.45951481</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>192472.81921481</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>192500.31591481</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>194146.72611481</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>193553.79971481</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>193659.24301481</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>193659.24301481</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>194125.70431481</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>191949.98431481</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>191588.10691481</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>189772.27261481</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>191114.07221481</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>191114.07221481</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>192958.47881481</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>192926.47881481</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>193176.47881481</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>193379.93911481</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>193379.93911481</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>193560.73671481</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>194966.10681481</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>194966.10681481</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>194839.86301481</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>191646.87491481</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>191236.00851481</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>185054.76771481</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>180307.07421481</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>187498.47501481</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>187055.68991481</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>186835.20541481</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>213709.1532558201</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>215113.9314558201</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>214356.2749558201</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>214680.5732558201</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>213445.4519558201</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>212698.7265558201</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>212986.9929558201</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>213852.2161558201</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>210798.8636558201</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>207783.5578558201</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>181184.6456558201</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>176482.7779396501</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>167055.4997396501</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>120210.1893396501</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>130693.7324396501</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>197779.6004627701</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>186427.0135627701</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>185942.5693627701</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>185710.2963627701</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>185383.0243627701</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>172755.5594627701</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>173842.2488627701</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>174864.1266627701</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>177535.6502627701</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>210695.10936277</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>210354.58216277</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>210354.58216277</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>210418.37766277</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>210372.14106277</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>212325.56646277</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>216792.4417627701</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>226331.52846277</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>213912.0298627701</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>217393.50026277</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>361212.34047386</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>361212.34047386</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>374484.10537386</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>360942.7983738601</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>360942.7983738601</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>358227.3034391801</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>359894.3132391801</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>363411.4775391801</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>360293.5174391801</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>361799.3792391801</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>386997.1502391801</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>381802.0504731001</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>378158.6044731001</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>390315.1169731001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>388255.2330731001</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>386476.8812731001</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>384300.9862731001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>395668.7410731001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>401585.8831055501</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>393842.7692055501</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>389708.9760055501</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>392394.1784055501</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>391427.7854055501</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>376612.7939055501</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>387684.8281055501</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>386773.2459055501</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>381022.3720055501</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>384131.45968424</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>305718.5089459798</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>309833.6012459798</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>314171.1266459798</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>301977.2807459797</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>302124.6290459798</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>296967.9293459798</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>296965.5893459797</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>289887.7536459797</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>289849.7536459797</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>291949.0053459798</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>232616.3104459797</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>236498.1117380097</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>237725.6258380097</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>239282.2521667497</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>239280.2521667497</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>241770.6789667497</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>241405.1853667497</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>238800.3661667497</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>238881.1531667497</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>239489.9606667497</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>273483.7628943597</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>274008.7628943597</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>274008.7628943597</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>270018.5132594597</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>269508.8876594597</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>270693.6292594597</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>269842.0005594597</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>269443.8648594597</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>272804.0377594597</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>273378.2177594597</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>273524.7372594597</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>273496.3896594597</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>272583.2551594597</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>273787.5446682298</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>282002.7657682298</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>280848.5380692598</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>280661.6813692598</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>276321.9341692598</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>277258.1349450698</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>277350.5879450698</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>277187.9548450698</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>272438.4811450698</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>271985.9000450697</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>278712.2426048898</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>281885.4885704799</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>282742.1659704798</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>284718.3587704799</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>283968.3587704799</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>284218.3587704799</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>285714.3542704799</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>285891.3039704799</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>287237.4026704798</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>287501.3509704798</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>287045.7816704799</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>287323.7954704799</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>284933.0571704798</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>284897.8150704799</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>284967.0904704799</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>284969.1739704799</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>288342.4189704799</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>278756.4943704798</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>278069.6088704799</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>278091.9251704799</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>275988.7892130599</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>270790.1155130599</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>272166.5067887099</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>272247.9393887099</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>271747.7393887099</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>271947.7393887099</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>279958.7251887099</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>278828.0076887099</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>280414.2333887099</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>285903.9739887099</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>285881.0333887099</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>287271.6423887099</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>286432.8611887099</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>287043.0360887099</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>285709.3531887099</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>279670.5943887099</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>276334.3790887099</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>278084.5610887099</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>279685.8078887099</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>279672.2603887099</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>279672.0903887099</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>279711.7396887099</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>279789.5188887099</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>276876.6303887099</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>274850.1609887099</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>274733.3569887099</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>271923.2680887099</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>272380.2156359301</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>274665.6125359301</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>273898.4550359302</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>273143.6150359301</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>291003.0118359301</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>289913.9745359301</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>290413.9745359301</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>290381.9745359301</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>289945.2953359301</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>289950.3527697601</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>289701.9228697601</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>290186.5576697601</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>290609.0213697601</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>288665.6297697601</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>288422.3102697601</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>288367.4413697601</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>288301.6468697601</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>286902.0873285301</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>285449.7791285301</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>294456.43692853</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>295943.9359285301</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>290842.25272853</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
